--- a/TEMOA_Europe_Results/2_Results_ct+_nuc-/_8_Biorefineries feedstock.xlsx
+++ b/TEMOA_Europe_Results/2_Results_ct+_nuc-/_8_Biorefineries feedstock.xlsx
@@ -469,10 +469,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>2.793987532190439</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>66.55344265451048</v>
+        <v>63.94423581824834</v>
       </c>
       <c r="G2">
         <v>0</v>
